--- a/templates/AutomationOrg/RSTK-9616-WO auto serialize from primary component.xlsx
+++ b/templates/AutomationOrg/RSTK-9616-WO auto serialize from primary component.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A21D4-2EF8-4578-8B11-CA0D9C30387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D15B10-F2DD-4313-8C6B-44588AA2A252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Site</t>
   </si>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,36 +574,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
